--- a/Tests/Validation/Ryegrass/Gatton9597.xlsx
+++ b/Tests/Validation/Ryegrass/Gatton9597.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DFF94F-CDCB-42BE-A681-0FA9CC9E1AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323973C9-262A-4595-BE80-FFEE454621A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81480" yWindow="15" windowWidth="38640" windowHeight="21120" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
+    <workbookView xWindow="1371" yWindow="2263" windowWidth="22080" windowHeight="12068" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>AgPRyegrass.Harvestable.Digestibility</t>
   </si>
   <si>
-    <t>AgPRyegrass.AboveGround.Wt</t>
-  </si>
-  <si>
     <t>SimulationName</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Gatton9597CultivarVedette</t>
+  </si>
+  <si>
+    <t>AgPRyegrass.AboveGroundHarvestable.StructuralWt</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CBB69E-72C1-4422-8074-459BD3868199}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="T98" sqref="T98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -457,24 +457,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>34820</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>34851</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>34881</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>34912</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>34943</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>34973</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>35004</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>35034</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>35065</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>35096</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>35125</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>35156</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>35186</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>35217</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>35247</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>35278</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>35309</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>35339</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>35370</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>35400</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>35431</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>35462</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>35490</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>35521</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
         <v>35551</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
         <v>35582</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>34820</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>34851</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>34881</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>34912</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>34943</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>34973</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>35004</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>35034</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
         <v>35065</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>35096</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>35125</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>35156</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <v>35186</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>35217</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>35247</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
         <v>35278</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>35309</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>35339</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>35370</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>35400</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>35431</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
         <v>35462</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1">
         <v>35490</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>35521</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>35551</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <v>35582</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>34820</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
         <v>34851</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
         <v>34881</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>34912</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>34943</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>34973</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>35004</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>35034</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>35065</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>35096</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <v>35125</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
         <v>35156</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
         <v>35186</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
         <v>35217</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
         <v>35247</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
         <v>35278</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
         <v>35309</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1">
         <v>35339</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
         <v>35370</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
         <v>35400</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>35431</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <v>35462</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <v>35490</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
         <v>35521</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1">
         <v>35551</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
         <v>35582</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
         <v>34820</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
         <v>34851</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
         <v>34881</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <v>34912</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <v>34943</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
         <v>34973</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1">
         <v>35004</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1">
         <v>35034</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
         <v>35065</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
         <v>35096</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>35125</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1">
         <v>35156</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
         <v>35186</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1">
         <v>35217</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1">
         <v>35247</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>35278</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1">
         <v>35309</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>35339</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <v>35370</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1">
         <v>35400</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1">
         <v>35431</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
         <v>35462</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1">
         <v>35490</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1">
         <v>35521</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
         <v>35551</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1">
         <v>35582</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" s="1">
         <v>34820</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1">
         <v>34851</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
         <v>34881</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
         <v>34912</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1">
         <v>34943</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
         <v>34973</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1">
         <v>35004</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1">
         <v>35034</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
         <v>35065</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
         <v>35096</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>35125</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
         <v>35156</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>35186</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1">
         <v>35217</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1">
         <v>35247</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1">
         <v>35278</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
         <v>35309</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
         <v>35339</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
         <v>35370</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" s="1">
         <v>35400</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1">
         <v>35431</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1">
         <v>35462</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" s="1">
         <v>35490</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1">
         <v>35521</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" s="1">
         <v>35551</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" s="1">
         <v>35582</v>

--- a/Tests/Validation/Ryegrass/Gatton9597.xlsx
+++ b/Tests/Validation/Ryegrass/Gatton9597.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323973C9-262A-4595-BE80-FFEE454621A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3392AEB-DF3F-4A18-A942-949CF96CDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1371" yWindow="2263" windowWidth="22080" windowHeight="12068" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
+    <workbookView xWindow="43080" yWindow="-3975" windowWidth="38640" windowHeight="21120" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CBB69E-72C1-4422-8074-459BD3868199}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1116,9 +1116,6 @@
       <c r="D49">
         <v>0.76138000000000006</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">

--- a/Tests/Validation/Ryegrass/Gatton9597.xlsx
+++ b/Tests/Validation/Ryegrass/Gatton9597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3392AEB-DF3F-4A18-A942-949CF96CDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA91F8-F561-4F46-8A80-2EBD274B6FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-3975" windowWidth="38640" windowHeight="21120" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
+    <workbookView xWindow="44565" yWindow="795" windowWidth="28800" windowHeight="15150" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CBB69E-72C1-4422-8074-459BD3868199}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -455,20 +458,20 @@
     <col min="5" max="5" width="29.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Tests/Validation/Ryegrass/Gatton9597.xlsx
+++ b/Tests/Validation/Ryegrass/Gatton9597.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jessica\GIT\ApsimX\ApsimX\Tests\Validation\Ryegrass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA91F8-F561-4F46-8A80-2EBD274B6FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60B4E9-00C3-43D8-B081-9FDE4B32E385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44565" yWindow="795" windowWidth="28800" windowHeight="15150" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
+    <workbookView xWindow="43080" yWindow="-3975" windowWidth="38640" windowHeight="21120" xr2:uid="{F6FAA82E-3A16-4146-BEFE-CA22E4777305}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Gatton9597CultivarVedette</t>
   </si>
   <si>
-    <t>AgPRyegrass.AboveGroundHarvestable.StructuralWt</t>
+    <t>AgPRyegrass.AboveGroundHarvestable.Wt</t>
   </si>
 </sst>
 </file>
@@ -447,14 +447,15 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.23046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="32.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
